--- a/학습자료/단답형/국어_복습_6일차.xlsx
+++ b/학습자료/단답형/국어_복습_6일차.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,6 +993,28 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>大馬不死</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>대마불사, 바둑을 둘 때, 대마는 쉽게 죽지 아니하고 필경 살길이 생겨난다는 말.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_6일차.xlsx
+++ b/학습자료/단답형/국어_복습_6일차.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -608,7 +608,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
